--- a/Pruebas/Pruebas.xlsx
+++ b/Pruebas/Pruebas.xlsx
@@ -1387,7 +1387,7 @@
   <dimension ref="B5:E38"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A18" workbookViewId="0">
-      <selection activeCell="H39" sqref="H39"/>
+      <selection activeCell="N43" sqref="N43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelCol="4"/>
